--- a/data/hotels_by_city/Houston/Houston_shard_152.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55704-d12243644-Reviews-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-NorthwestCypress.h17087489.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,294 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r576574346-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>55704</t>
+  </si>
+  <si>
+    <t>12243644</t>
+  </si>
+  <si>
+    <t>576574346</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New, clean, and comfortable </t>
+  </si>
+  <si>
+    <t>My family enjoyed the stylish decor, the comfortable beds, and the quick and friendly service on arrival and departure. The loveseat and availability of video streaming services was a nice additional touch! We didn't take advantage of the bistro, but it looked clean and attractive as well. I'm also happy that a makeup mirror was provided in the bath! So many hotels overlook this amenity, and I'm glad that this one did not! Overall, we had a great stay.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r570276180-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>570276180</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Good, convenient hotel in Cypress</t>
+  </si>
+  <si>
+    <t>Prior to the Courtyard opening, there were limited options for a hotel when visiting family here. Now we have a good local option. I am fortunately eligible for several good rates (AAA, Corporate, AARP), but for others it may be a bit pricey. The Bistro is opening until 9:30 am for breakfast and until 10am in the evening. Nice enough selection, tasty,  but not cheap. $21 for a coffee, slice of coffee cake, breakfast sandwich and two coffee drinks. I often go to the Starbucks inside Randall's grocery store next door. Love having refrig and microwave in the room.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r569751984-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>569751984</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We spent 6 nights at this hotel and were very impressed.  The hotel is only 1 year old.  The building and grounds are beautiful, with a large outside seating, relaxing area.  The room was very clean and the staff is extremely friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r541028003-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>541028003</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>A great place to stay for a day</t>
+  </si>
+  <si>
+    <t>Clean. Comfortable mattress. Lots of pillows. Outstanding shower. Very friendly staff. Great location - near a major freeway. You can buy breakfast downstairs. I think they stop serving a typical breakfast fairly early, but you can buy coffee and a snack pretty much any time. Randalls is right next door, so if you prefer to stock up on fruit, water and other groceries, it's very convenient.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r540453849-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>540453849</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Worth finding in cypress, texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newer format courtyardSimpler, focused, well managed with a small footprint, simplified formatLimited menu, bar, with pleasant patio and indoor seated areaDoorDash works for delivery. Uber still shows hotel as open lot. If you request Uber, message the driver that you are across from LA Fitness Clean, fresh, rooms with shower only and fixed windowsNear much of north houston </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r536301905-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>536301905</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for Business Travelers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel must be brand new or newly renovated!  I’m impressed with the rooms - walk in showers, Internet TV, large rooms, and USB ports.  The lobby and restaurant areas are very different from any other Courtyard I have stayed in. Beautiful!  As a female business traveler (in hotels over 250 days a year) I find this Courtyard refreshing!  Great staff, safe and lots of restaurants and other amenities within walking distance of the property. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r514404575-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>514404575</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Above Par Staff</t>
+  </si>
+  <si>
+    <t>Tameka at the front desk checked us in and looked very professional.  She offered us a choice of floor and we chose the fourth thinking it would be quieter - but the truth is I think Marriott has insulated the walls around all the rooms because our room was soo quiet - just saying.The decor of the room was nice and the bed was comfortable.  The AC cooled the room perfectly.  My only complaint is that the room had a funky smell - like someone had been smoking in the room and staff used an air freshener to cover it up.  It  kind of made me nauseous.  Other than that a great experience. We interacted with other staff on a few occasions and they were always polite and willing to go the extra mile.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Tameka at the front desk checked us in and looked very professional.  She offered us a choice of floor and we chose the fourth thinking it would be quieter - but the truth is I think Marriott has insulated the walls around all the rooms because our room was soo quiet - just saying.The decor of the room was nice and the bed was comfortable.  The AC cooled the room perfectly.  My only complaint is that the room had a funky smell - like someone had been smoking in the room and staff used an air freshener to cover it up.  It  kind of made me nauseous.  Other than that a great experience. We interacted with other staff on a few occasions and they were always polite and willing to go the extra mile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r506231862-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>506231862</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Above our expectations.  Italia at the front desk went above and beyond to make our stay a comfortable experience.  Bertha in housekeeping is a hard worker that met all if our needs.  Thank you to restaurant and maintenance staff as well.  Calm area, easily accessible to freeways, beaches, and events!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r500417668-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>500417668</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Feedback from two stays</t>
+  </si>
+  <si>
+    <t>We've stayed here twice in the last couple of months on business trips.  Clean.  New.  And as efficient as Marriott builds them these days.  Sort of puzzling to find, inasmuch as it sits on the back of a large shopping center parking lot (you just drive around the right side of the big fitness center).  Very well located in relationship to places to eat, shop, although they run to cheap eats and quick stuff with a preponderance of Vietnamese places.  Good, but a dearth of fine dining.  One nice Italian place close by.  A couple of breakfast venues.  A decent BBQ spot or two.  We like it, so far.  However, the Marriott Check in function on their App, has NEVER, EVER worked for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed here twice in the last couple of months on business trips.  Clean.  New.  And as efficient as Marriott builds them these days.  Sort of puzzling to find, inasmuch as it sits on the back of a large shopping center parking lot (you just drive around the right side of the big fitness center).  Very well located in relationship to places to eat, shop, although they run to cheap eats and quick stuff with a preponderance of Vietnamese places.  Good, but a dearth of fine dining.  One nice Italian place close by.  A couple of breakfast venues.  A decent BBQ spot or two.  We like it, so far.  However, the Marriott Check in function on their App, has NEVER, EVER worked for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r486640517-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>486640517</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Second review of this hotel</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel 1 year ago - and I have to posted another positive review.  Staff was great, clean, quite and very comfortable.  My only negative comment is lack of coffee and hot water (free) in the bistro.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r483444695-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>483444695</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Birthday Celebration</t>
+  </si>
+  <si>
+    <t>The property was really clean, the staff was very helpful and kind (Michael).  I was most impressed with their lobby and the patio area.  The lounge area had booths with individual flat screens for your viewing pleasure! The location was remote with great privacy, peaceful and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Jane D, General Manager at Courtyard by Marriott Houston Northwest/Cypress, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>The property was really clean, the staff was very helpful and kind (Michael).  I was most impressed with their lobby and the patio area.  The lounge area had booths with individual flat screens for your viewing pleasure! The location was remote with great privacy, peaceful and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r482702504-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>482702504</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay visiting family!!!!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel this past weekend while in town visiting family. The hotel was perfect-clean with amenities beyond our expectation, comfortable bed and room layout, accommodating staff, and a great bistro and bar. It was truly a 5-star hotel experience at an affordable price. There are great restaurants and shopping in walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r471987191-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>471987191</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Softball Team</t>
+  </si>
+  <si>
+    <t>Great service for our softball team and went the extra mile in order to accommodate us! The staff was excellent and were very polite, helpful, and worked quickly. All the rooms were very clean and the item itself was very clean!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r471987021-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>471987021</t>
+  </si>
+  <si>
+    <t>5 stars!!!!</t>
+  </si>
+  <si>
+    <t>There is literally no better place to stay! Best hotel I have ever stayed in will be coming back soon ! They we so great and went out of there way to make it the best stay of my life! Staff was amazing food was great and hotel was clean!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r470936018-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>470936018</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Immaculate hotel plus phenomenal staff</t>
+  </si>
+  <si>
+    <t>Manager Shantell and her staff are amazing. They are focused on meeting any needs you may have to make sure you're comfortable. This is a brand new hotel, everything was immaculate. I took some photos below of the small things that make a big difference for a lady traveler. The makeup mirror is always a huge plus that not all hotels have and along with the toiletries is a free razor blade and shaving cream which is perfect in this shower that has a slight ledge to help in shaving. There is a closet with a mirror on both sides so you can dress in front of the mirror with the closet door open(in case you want to change your outfit) or closed. I'm always a fan of the covered peephole for added privacy and the direct USB charges on either side of the bed are a perfect touch for the business traveler. I'm a Marriott gold member and often visit up to 50 nights a year in different properties but I will definitely come back and visit this teamMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager Shantell and her staff are amazing. They are focused on meeting any needs you may have to make sure you're comfortable. This is a brand new hotel, everything was immaculate. I took some photos below of the small things that make a big difference for a lady traveler. The makeup mirror is always a huge plus that not all hotels have and along with the toiletries is a free razor blade and shaving cream which is perfect in this shower that has a slight ledge to help in shaving. There is a closet with a mirror on both sides so you can dress in front of the mirror with the closet door open(in case you want to change your outfit) or closed. I'm always a fan of the covered peephole for added privacy and the direct USB charges on either side of the bed are a perfect touch for the business traveler. I'm a Marriott gold member and often visit up to 50 nights a year in different properties but I will definitely come back and visit this teamMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +826,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +858,976 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_152.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_152.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,117 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r613100755-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>55704</t>
+  </si>
+  <si>
+    <t>12243644</t>
+  </si>
+  <si>
+    <t>613100755</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Easy On &amp; Off of 290</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for work. My room was clean and spacious. My only gripe (&amp; it is more with Courtyard than this particular property) is that I had to eat off site for all meals since the Bistro menu isn’t marked with gluten-free options.If you are traveling and need essay access on and off 290, then this is a good pick for you.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r612723216-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>612723216</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Very clean and new</t>
+  </si>
+  <si>
+    <t>The hotel appears to be quite new.  The rooms are very spacious and quite comfortable.  Stayed for 2 nights.  The staff was quite friendly at check in.  Then when I found out I was double billed and called they told me it was because I did not show up.  They stated they had to talk to a manager to get it fixed.  They did contact me and said bill was fixed.  It is a great location as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r604388863-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>604388863</t>
+  </si>
+  <si>
     <t>08/08/2018</t>
   </si>
   <si>
+    <t>Our Weekend Getaway to visit our Family</t>
+  </si>
+  <si>
+    <t>This hotel is in one word, awesome. The staff is friendly, knowledgeable and easy to talk with. They have a wonderful diverse staff of professionals who know how to make you feel at home. The room are spotless, cool  and large. I especially like going down to the Bistro for coffee in the early morning, look up the Jamaican guy, (Shamar?) he is friendly, special and easy to talk to. Will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r590618247-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>590618247</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Lovely Hotel!</t>
+  </si>
+  <si>
+    <t>This is a fairly new property, nice size room , good size bathroom and everything I needed and wanted! Great gym and guest laundry! Made good use of both! Nice little bistro, I would definitely stay here again!!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r590359549-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>590359549</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Worst experience ever - from a gold elite member - do not go to this property</t>
+  </si>
+  <si>
+    <t>Good - it looks like a relatively new property, but I cant vouch for the rooms.  Why? Because when I tried to check in, it was late at night, and the front desk person was incredibly rude and aggressive.  I have stayed at hundreds of hotel rooms, and have never seen anything quite this bad.  She first said she couldnt find my reservation, then when I asked for room availability, she said indeed there were rooms, but was not willing to sell me one.  I pointed out that she was being rude (as politely as I could), and she ended up calling the cops.  I stayed on, waited to talk to the police, and he was apologetic for the front desk persons behavior.  Asked that I escalate this up with marriott, which I have.  Lets see what happens now. I ended up going to the airport marriott in Houston IAH, and looks like they have renovated their rooms. The shuttle driver who picked me up told me that he has heard similar complaints.  This is really sad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jane D, General Manager at Courtyard by Marriott Houston Northwest/Cypress, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Good - it looks like a relatively new property, but I cant vouch for the rooms.  Why? Because when I tried to check in, it was late at night, and the front desk person was incredibly rude and aggressive.  I have stayed at hundreds of hotel rooms, and have never seen anything quite this bad.  She first said she couldnt find my reservation, then when I asked for room availability, she said indeed there were rooms, but was not willing to sell me one.  I pointed out that she was being rude (as politely as I could), and she ended up calling the cops.  I stayed on, waited to talk to the police, and he was apologetic for the front desk persons behavior.  Asked that I escalate this up with marriott, which I have.  Lets see what happens now. I ended up going to the airport marriott in Houston IAH, and looks like they have renovated their rooms. The shuttle driver who picked me up told me that he has heard similar complaints.  This is really sad.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r576574346-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
-    <t>55704</t>
-  </si>
-  <si>
-    <t>12243644</t>
-  </si>
-  <si>
     <t>576574346</t>
   </si>
   <si>
@@ -174,9 +273,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r570276180-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -213,6 +309,48 @@
     <t>We spent 6 nights at this hotel and were very impressed.  The hotel is only 1 year old.  The building and grounds are beautiful, with a large outside seating, relaxing area.  The room was very clean and the staff is extremely friendly and helpful.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r550010018-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>550010018</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Clean and updated accommodations</t>
+  </si>
+  <si>
+    <t>Stayed on a Tuesday night after Christmas. $5 discount with AAA membership, haha! Hardly anyone there, very quiet. Omar checked us in and was pretty friendly. The blankets aren't very thick but are adequate. The AC unit no longer has controls but there is a new thermostat control on the wall. The unit is a bit noisy which disturbed my sleep but I'm a light sleeper. The bathroom is spacious, most likely because it is ADA compliant. Unfortunately, the water didn't get hot enough to take a hot bath. Room included free coffee and tea, a desk and desk chair, a reading chair, alarm clock, lots of extra outlets, and plenty of luggage/storage space. There is a bistro up front but it is not complimentary. We didn't ask if there was free continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Stayed on a Tuesday night after Christmas. $5 discount with AAA membership, haha! Hardly anyone there, very quiet. Omar checked us in and was pretty friendly. The blankets aren't very thick but are adequate. The AC unit no longer has controls but there is a new thermostat control on the wall. The unit is a bit noisy which disturbed my sleep but I'm a light sleeper. The bathroom is spacious, most likely because it is ADA compliant. Unfortunately, the water didn't get hot enough to take a hot bath. Room included free coffee and tea, a desk and desk chair, a reading chair, alarm clock, lots of extra outlets, and plenty of luggage/storage space. There is a bistro up front but it is not complimentary. We didn't ask if there was free continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r549820104-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>549820104</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>You’ve found your hotel!</t>
+  </si>
+  <si>
+    <t>We had the privilege of staying at the Courtyard by Marriott Northwest/Cypress during Hurricane Harvey after evacuating from our flooded apartment. During our two week stay, Jane and her staff, who had committed to stay at the hotel during the storm, treated us like royalty. The city was shut down, but we were fed breakfast, lunch and dinner every day. They did anything and everything necessary to keep us comfortable and happy - all with a smile on their face. The hotel is stylish, comfortable and clean. The beds are luxurious. The food is super yummy. If you’re looking for a hotel in this area, your search is over. You’ve found your hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We had the privilege of staying at the Courtyard by Marriott Northwest/Cypress during Hurricane Harvey after evacuating from our flooded apartment. During our two week stay, Jane and her staff, who had committed to stay at the hotel during the storm, treated us like royalty. The city was shut down, but we were fed breakfast, lunch and dinner every day. They did anything and everything necessary to keep us comfortable and happy - all with a smile on their face. The hotel is stylish, comfortable and clean. The beds are luxurious. The food is super yummy. If you’re looking for a hotel in this area, your search is over. You’ve found your hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r541028003-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -252,9 +390,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r536301905-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -270,6 +405,39 @@
     <t xml:space="preserve">This hotel must be brand new or newly renovated!  I’m impressed with the rooms - walk in showers, Internet TV, large rooms, and USB ports.  The lobby and restaurant areas are very different from any other Courtyard I have stayed in. Beautiful!  As a female business traveler (in hotels over 250 days a year) I find this Courtyard refreshing!  Great staff, safe and lots of restaurants and other amenities within walking distance of the property. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r536008088-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>536008088</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Hidden Gem!</t>
+  </si>
+  <si>
+    <t>This is a new hotel in the Cypress area near Randalls which is a major supermarket.  It is quiet, the rooms are very upscale, the beds extremely comfortable.  I was here two nights and the experience was very peaceful.  No issues with the television or reception and there was a magnifying mirror in the bathroom for makeup and grooming.  The complimentary wifi worked well too.  Bravo!  I would highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r529727201-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>529727201</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>There are certainly better places to stay</t>
+  </si>
+  <si>
+    <t>No one at front desk when we got there. Finally found  a maid who after about 30 minutes found someone to check us in.  Couch in room is hard &amp; back is short &amp; sloped in manner that makes it impossible to sit back.  Desk chair is hard &amp; plastic covered.  Bed is way too firm &amp; we got little sleep &amp; were sore from tossing &amp; turning all night.  Breakfast is not expensive but is my "gas station microwaved burrito" made McDonald's fare taste gourmet then they tried to charge me twice for it.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r514404575-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -285,9 +453,6 @@
     <t>Tameka at the front desk checked us in and looked very professional.  She offered us a choice of floor and we chose the fourth thinking it would be quieter - but the truth is I think Marriott has insulated the walls around all the rooms because our room was soo quiet - just saying.The decor of the room was nice and the bed was comfortable.  The AC cooled the room perfectly.  My only complaint is that the room had a funky smell - like someone had been smoking in the room and staff used an air freshener to cover it up.  It  kind of made me nauseous.  Other than that a great experience. We interacted with other staff on a few occasions and they were always polite and willing to go the extra mile.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Tameka at the front desk checked us in and looked very professional.  She offered us a choice of floor and we chose the fourth thinking it would be quieter - but the truth is I think Marriott has insulated the walls around all the rooms because our room was soo quiet - just saying.The decor of the room was nice and the bed was comfortable.  The AC cooled the room perfectly.  My only complaint is that the room had a funky smell - like someone had been smoking in the room and staff used an air freshener to cover it up.  It  kind of made me nauseous.  Other than that a great experience. We interacted with other staff on a few occasions and they were always polite and willing to go the extra mile.More</t>
   </si>
   <si>
@@ -327,6 +492,42 @@
     <t>We've stayed here twice in the last couple of months on business trips.  Clean.  New.  And as efficient as Marriott builds them these days.  Sort of puzzling to find, inasmuch as it sits on the back of a large shopping center parking lot (you just drive around the right side of the big fitness center).  Very well located in relationship to places to eat, shop, although they run to cheap eats and quick stuff with a preponderance of Vietnamese places.  Good, but a dearth of fine dining.  One nice Italian place close by.  A couple of breakfast venues.  A decent BBQ spot or two.  We like it, so far.  However, the Marriott Check in function on their App, has NEVER, EVER worked for us.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r497287032-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>497287032</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Baseball Team Treated Like Royalty!!</t>
+  </si>
+  <si>
+    <t>I've been saving my first Tripadvisor Review for a fantastic hotel and this is absolutely the one!  Our 17U baseball team/families traveled from Wisconsin to Houston and stayed here 6/23-6/28 and my only complaint is I wasn't able to stay longer! The staff was unbelievable with their care of our team's welfare, arranging a morning breakfast, offering to do laundry, even texting our team to find out how we did!! The managers and staff took every opportunity to ask us if we needed anything and give us a friendly welcome.  They made wonderful recommendations for eating and places to visit.  I would have to extend this review to a book to cover all the perfect little amenities at this new, beautiful facility.  The lobby was over the top with a wonderful bistro, comfortable chairs, booths with private T.V.'s, charging stations all over, couches, and large screen t.v. - our boys even sat and played the monopoly board game available three nights in a row - not staring at their phones!!  The outside patio area is wonderful for groups with a fire pit and the pool area/work-out room was used by our group!!  The rooms are comfortable, new, clean and sound proof!! There are delicious restaurants and grocery stores within walking distance.  Even though the facility was amazing - the staff and service makes me want to return and just relax at the hotel!  Yes...the hotel is a little tricky to...I've been saving my first Tripadvisor Review for a fantastic hotel and this is absolutely the one!  Our 17U baseball team/families traveled from Wisconsin to Houston and stayed here 6/23-6/28 and my only complaint is I wasn't able to stay longer! The staff was unbelievable with their care of our team's welfare, arranging a morning breakfast, offering to do laundry, even texting our team to find out how we did!! The managers and staff took every opportunity to ask us if we needed anything and give us a friendly welcome.  They made wonderful recommendations for eating and places to visit.  I would have to extend this review to a book to cover all the perfect little amenities at this new, beautiful facility.  The lobby was over the top with a wonderful bistro, comfortable chairs, booths with private T.V.'s, charging stations all over, couches, and large screen t.v. - our boys even sat and played the monopoly board game available three nights in a row - not staring at their phones!!  The outside patio area is wonderful for groups with a fire pit and the pool area/work-out room was used by our group!!  The rooms are comfortable, new, clean and sound proof!! There are delicious restaurants and grocery stores within walking distance.  Even though the facility was amazing - the staff and service makes me want to return and just relax at the hotel!  Yes...the hotel is a little tricky to find - but so worth it when you arrive!!  Thank you for everything!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I've been saving my first Tripadvisor Review for a fantastic hotel and this is absolutely the one!  Our 17U baseball team/families traveled from Wisconsin to Houston and stayed here 6/23-6/28 and my only complaint is I wasn't able to stay longer! The staff was unbelievable with their care of our team's welfare, arranging a morning breakfast, offering to do laundry, even texting our team to find out how we did!! The managers and staff took every opportunity to ask us if we needed anything and give us a friendly welcome.  They made wonderful recommendations for eating and places to visit.  I would have to extend this review to a book to cover all the perfect little amenities at this new, beautiful facility.  The lobby was over the top with a wonderful bistro, comfortable chairs, booths with private T.V.'s, charging stations all over, couches, and large screen t.v. - our boys even sat and played the monopoly board game available three nights in a row - not staring at their phones!!  The outside patio area is wonderful for groups with a fire pit and the pool area/work-out room was used by our group!!  The rooms are comfortable, new, clean and sound proof!! There are delicious restaurants and grocery stores within walking distance.  Even though the facility was amazing - the staff and service makes me want to return and just relax at the hotel!  Yes...the hotel is a little tricky to...I've been saving my first Tripadvisor Review for a fantastic hotel and this is absolutely the one!  Our 17U baseball team/families traveled from Wisconsin to Houston and stayed here 6/23-6/28 and my only complaint is I wasn't able to stay longer! The staff was unbelievable with their care of our team's welfare, arranging a morning breakfast, offering to do laundry, even texting our team to find out how we did!! The managers and staff took every opportunity to ask us if we needed anything and give us a friendly welcome.  They made wonderful recommendations for eating and places to visit.  I would have to extend this review to a book to cover all the perfect little amenities at this new, beautiful facility.  The lobby was over the top with a wonderful bistro, comfortable chairs, booths with private T.V.'s, charging stations all over, couches, and large screen t.v. - our boys even sat and played the monopoly board game available three nights in a row - not staring at their phones!!  The outside patio area is wonderful for groups with a fire pit and the pool area/work-out room was used by our group!!  The rooms are comfortable, new, clean and sound proof!! There are delicious restaurants and grocery stores within walking distance.  Even though the facility was amazing - the staff and service makes me want to return and just relax at the hotel!  Yes...the hotel is a little tricky to find - but so worth it when you arrive!!  Thank you for everything!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r489878259-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>489878259</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Modern Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is a perfectly nice family friendly place. It is close to the freeway and to little restaurants. The staff is very helpful and the lobby is comfortable.  We were here for Soccer, and they were able to accommodate the whole team. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r486640517-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -387,6 +588,57 @@
     <t>My husband and I stayed at this hotel this past weekend while in town visiting family. The hotel was perfect-clean with amenities beyond our expectation, comfortable bed and room layout, accommodating staff, and a great bistro and bar. It was truly a 5-star hotel experience at an affordable price. There are great restaurants and shopping in walking distance.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r479705319-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>479705319</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Very Clean great attitude</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and tidy, the rooms are a good size with free Wi Fi. Rooms well kitted out with coffee maker, microwave and fridge , air con is powerful . Good location for some local eateries ( salt grass steakhouse , chedders ) Staff attitude and helpfulness is fantastic.Downsides ? Hard to find location if relying on sat nav. Breakfast could be better MoreShow less</t>
+  </si>
+  <si>
+    <t>Jane D, General Manager at Courtyard by Marriott Houston Northwest/Cypress, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and tidy, the rooms are a good size with free Wi Fi. Rooms well kitted out with coffee maker, microwave and fridge , air con is powerful . Good location for some local eateries ( salt grass steakhouse , chedders ) Staff attitude and helpfulness is fantastic.Downsides ? Hard to find location if relying on sat nav. Breakfast could be better More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r472088476-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>472088476</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Best experience Ever for our group!!!</t>
+  </si>
+  <si>
+    <t>Our team has stayed at many hotel's over the last 4years and this has to be our best experience ever! The hotels is beautiful..both public areas, outdoor spaces and guestrooms, the food from the market was delicious, but what really stood out is the amazing staff.  Kenya, Director of Sales, was a delight to work with from initial contact to final billing and everyone our group was served by was professional, helpful, cheerful and truly seemed to love their job and be happy to interact with us.  As a business professional who travels about 100 nights per year this hotel truly ranks at the top of the list.  No doubt about where I will be staying next time I am in Cypress!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Jane D, General Manager at Courtyard by Marriott Houston Northwest/Cypress, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Our team has stayed at many hotel's over the last 4years and this has to be our best experience ever! The hotels is beautiful..both public areas, outdoor spaces and guestrooms, the food from the market was delicious, but what really stood out is the amazing staff.  Kenya, Director of Sales, was a delight to work with from initial contact to final billing and everyone our group was served by was professional, helpful, cheerful and truly seemed to love their job and be happy to interact with us.  As a business professional who travels about 100 nights per year this hotel truly ranks at the top of the list.  No doubt about where I will be staying next time I am in Cypress!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r471987191-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -412,9 +664,6 @@
   </si>
   <si>
     <t>There is literally no better place to stay! Best hotel I have ever stayed in will be coming back soon ! They we so great and went out of there way to make it the best stay of my life! Staff was amazing food was great and hotel was clean!</t>
-  </si>
-  <si>
-    <t>March 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d12243644-r470936018-Courtyard_by_Marriott_Houston_Northwest_Cypress-Cypress_Texas.html</t>
@@ -967,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1027,17 +1276,21 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1060,7 +1313,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1069,32 +1322,32 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1105,7 +1358,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1121,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1130,43 +1383,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1182,7 +1431,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1191,39 +1440,47 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1296,7 +1553,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1305,45 +1562,39 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1359,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1368,39 +1619,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1437,23 +1692,23 @@
         <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1461,7 +1716,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1732,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1486,43 +1741,39 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1538,7 +1789,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1547,34 +1798,32 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -1582,14 +1831,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>115</v>
-      </c>
-      <c r="X12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1626,24 +1871,20 @@
         <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -1666,7 +1907,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1675,25 +1916,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1707,7 +1948,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1723,7 +1964,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1732,29 +1973,27 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
         <v>5</v>
@@ -1770,7 +2009,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1786,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1795,39 +2034,836 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>182</v>
+      </c>
+      <c r="X23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>195</v>
+      </c>
+      <c r="X25" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>204</v>
+      </c>
+      <c r="X26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65927</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
